--- a/data/trans_bre/IP15-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP15-Edad-trans_bre.xlsx
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,74</t>
+          <t>-3,51</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>-4,09</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>2,24</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-13,99%</t>
+          <t>-18,03%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>21,5%</t>
+          <t>-17,03%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-5,58%</t>
+          <t>13,39%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-0,21%</t>
+          <t>9,59%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 2,24</t>
+          <t>-9,22; 3,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 7,68</t>
+          <t>-10,74; 1,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 3,95</t>
+          <t>-3,68; 7,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 8,09</t>
+          <t>-5,66; 9,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-36,47; 14,33</t>
+          <t>-42,83; 20,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-16,94; 69,38</t>
+          <t>-39,32; 10,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-34,0; 33,55</t>
+          <t>-19,03; 53,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-23,86; 44,47</t>
+          <t>-19,28; 46,31</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,51</t>
+          <t>-2,74</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,09</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,24</t>
+          <t>-0,82</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-18,03%</t>
+          <t>-13,99%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-17,03%</t>
+          <t>21,5%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>13,39%</t>
+          <t>-5,58%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,59%</t>
+          <t>-0,21%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,22; 3,11</t>
+          <t>-8,42; 2,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,74; 1,99</t>
+          <t>-2,63; 7,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 7,5</t>
+          <t>-5,92; 3,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 9,58</t>
+          <t>-5,46; 8,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-42,83; 20,04</t>
+          <t>-36,47; 14,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-39,32; 10,18</t>
+          <t>-16,94; 69,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-19,03; 53,97</t>
+          <t>-34,0; 33,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-19,28; 46,31</t>
+          <t>-23,86; 44,47</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP15-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP15-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,97</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>-1,45</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-5,18</t>
+          <t>-8,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,47%</t>
+          <t>11,93%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,74%</t>
+          <t>-5,52%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>20,68%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-17,02%</t>
+          <t>-22,34%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 8,72</t>
+          <t>-6,69; 11,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 7,13</t>
+          <t>-9,33; 6,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 10,9</t>
+          <t>-6,43; 9,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,3; 3,62</t>
+          <t>-20,48; 4,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-16,37; 50,02</t>
+          <t>-23,02; 56,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-22,75; 31,31</t>
+          <t>-30,83; 29,09</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-9,99; 69,05</t>
+          <t>-27,86; 59,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-40,65; 13,6</t>
+          <t>-49,43; 16,78</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-3,51</t>
+          <t>-3,01</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-4,09</t>
+          <t>-2,12</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,24</t>
+          <t>3,36</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-18,03%</t>
+          <t>-15,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-17,03%</t>
+          <t>-8,45%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>13,39%</t>
+          <t>20,15%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>9,59%</t>
+          <t>6,95%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,22; 3,11</t>
+          <t>-8,37; 2,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,74; 1,99</t>
+          <t>-8,74; 3,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 7,5</t>
+          <t>-2,47; 9,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 9,58</t>
+          <t>-5,99; 10,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-42,83; 20,04</t>
+          <t>-36,34; 13,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-39,32; 10,18</t>
+          <t>-30,54; 16,91</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-19,03; 53,97</t>
+          <t>-12,74; 69,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-19,28; 46,31</t>
+          <t>-20,42; 46,1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,74</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-13,99%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>21,5%</t>
+          <t>7,51%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-5,58%</t>
+          <t>7,82%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,21%</t>
+          <t>-1,29%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 2,24</t>
+          <t>-6,58; 8,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 7,68</t>
+          <t>-5,8; 9,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 3,95</t>
+          <t>-5,52; 8,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 8,09</t>
+          <t>-7,75; 6,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-36,47; 14,33</t>
+          <t>-34,14; 59,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-16,94; 69,38</t>
+          <t>-28,18; 65,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-34,0; 33,55</t>
+          <t>-27,32; 56,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-23,86; 44,47</t>
+          <t>-31,49; 39,61</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>-3,4</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-7,6%</t>
+          <t>-17,78%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-1,54%</t>
+          <t>14,29%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>9,34%</t>
+          <t>-2,63%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-0,25%</t>
+          <t>1,75%</t>
         </is>
       </c>
     </row>
@@ -968,48 +968,156 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 1,55</t>
+          <t>-9,95; 3,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 3,41</t>
+          <t>-5,31; 7,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 4,82</t>
+          <t>-6,14; 5,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 4,39</t>
+          <t>-7,05; 9,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-23,38; 8,31</t>
+          <t>-44,16; 21,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-16,33; 17,62</t>
+          <t>-30,3; 69,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 32,24</t>
+          <t>-39,13; 63,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-17,48; 19,91</t>
+          <t>-29,64; 51,51</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-1,51</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,32</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,55</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-0,06</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-7,6%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-1,54%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>9,34%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-0,25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-4,97; 1,89</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-3,83; 3,24</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-1,79; 4,82</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-3,85; 5,04</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-22,81; 10,41</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-16,84; 16,6</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-9,53; 31,96</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-14,82; 24,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>

--- a/data/trans_bre/IP15-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP15-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 11,48</t>
+          <t>-6,18; 11,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,33; 6,25</t>
+          <t>-8,98; 7,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 9,2</t>
+          <t>-6,96; 8,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-20,48; 4,83</t>
+          <t>-21,67; 5,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-23,02; 56,3</t>
+          <t>-22,83; 58,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-30,83; 29,09</t>
+          <t>-30,92; 32,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-27,86; 59,07</t>
+          <t>-28,57; 56,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-49,43; 16,78</t>
+          <t>-50,24; 15,98</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,37; 2,35</t>
+          <t>-9,12; 2,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,74; 3,79</t>
+          <t>-8,11; 4,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 9,34</t>
+          <t>-1,92; 10,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 10,3</t>
+          <t>-6,33; 9,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-36,34; 13,62</t>
+          <t>-40,11; 12,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-30,54; 16,91</t>
+          <t>-28,66; 18,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-12,74; 69,26</t>
+          <t>-10,69; 73,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-20,42; 46,1</t>
+          <t>-20,63; 43,0</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 8,2</t>
+          <t>-6,86; 8,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 9,11</t>
+          <t>-5,76; 8,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 8,16</t>
+          <t>-5,24; 7,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,75; 6,87</t>
+          <t>-7,62; 7,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-34,14; 59,06</t>
+          <t>-33,43; 63,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-28,18; 65,56</t>
+          <t>-27,59; 59,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-27,32; 56,9</t>
+          <t>-24,49; 57,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-31,49; 39,61</t>
+          <t>-30,17; 38,82</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,95; 3,26</t>
+          <t>-9,6; 3,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 7,63</t>
+          <t>-3,66; 8,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 5,66</t>
+          <t>-6,11; 5,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 9,69</t>
+          <t>-6,89; 9,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-44,16; 21,55</t>
+          <t>-42,77; 20,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-30,3; 69,21</t>
+          <t>-21,85; 76,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-39,13; 63,12</t>
+          <t>-37,64; 52,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-29,64; 51,51</t>
+          <t>-28,33; 52,82</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 1,89</t>
+          <t>-5,05; 1,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 3,24</t>
+          <t>-3,76; 3,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 4,82</t>
+          <t>-1,54; 4,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 5,04</t>
+          <t>-4,3; 4,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-22,81; 10,41</t>
+          <t>-23,17; 10,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-16,84; 16,6</t>
+          <t>-16,78; 16,35</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-9,53; 31,96</t>
+          <t>-8,35; 30,96</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-14,82; 24,11</t>
+          <t>-16,69; 21,3</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP15-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP15-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-8,0</t>
+          <t>-8,59</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-22,34%</t>
+          <t>-23,62%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 11,88</t>
+          <t>-6,84; 11,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,98; 7,15</t>
+          <t>-10,75; 6,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 8,92</t>
+          <t>-6,81; 8,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-21,67; 5,1</t>
+          <t>-21,23; 3,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-22,83; 58,82</t>
+          <t>-23,68; 56,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-30,92; 32,78</t>
+          <t>-34,24; 28,82</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-28,57; 56,24</t>
+          <t>-29,93; 57,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-50,24; 15,98</t>
+          <t>-49,64; 14,37</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,95%</t>
+          <t>8,65%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,12; 2,23</t>
+          <t>-8,16; 2,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,11; 4,08</t>
+          <t>-8,19; 4,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 10,02</t>
+          <t>-2,65; 8,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 9,54</t>
+          <t>-6,41; 11,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-40,11; 12,34</t>
+          <t>-37,17; 13,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-28,66; 18,5</t>
+          <t>-30,15; 21,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-10,69; 73,96</t>
+          <t>-13,15; 62,8</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-20,63; 43,0</t>
+          <t>-20,96; 47,77</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,29%</t>
+          <t>0,83%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 8,69</t>
+          <t>-6,28; 8,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 8,48</t>
+          <t>-5,75; 7,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 7,47</t>
+          <t>-5,81; 7,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,62; 7,0</t>
+          <t>-7,04; 7,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-33,43; 63,74</t>
+          <t>-30,5; 62,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-27,59; 59,67</t>
+          <t>-27,01; 58,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-24,49; 57,79</t>
+          <t>-27,32; 54,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-30,17; 38,82</t>
+          <t>-28,51; 41,8</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>7,12</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>33,64%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,6; 3,14</t>
+          <t>-9,67; 2,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 8,61</t>
+          <t>-4,26; 8,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,11; 5,19</t>
+          <t>-6,74; 6,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 9,46</t>
+          <t>-3,12; 30,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-42,77; 20,32</t>
+          <t>-41,75; 18,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-21,85; 76,54</t>
+          <t>-24,83; 78,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-37,64; 52,62</t>
+          <t>-41,15; 60,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-28,33; 52,82</t>
+          <t>-15,75; 168,18</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,25%</t>
+          <t>12,19%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 1,92</t>
+          <t>-5,16; 1,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 3,19</t>
+          <t>-3,67; 3,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 4,64</t>
+          <t>-1,48; 4,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 4,58</t>
+          <t>-2,09; 13,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-23,17; 10,85</t>
+          <t>-23,38; 8,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-16,78; 16,35</t>
+          <t>-16,33; 17,62</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-8,35; 30,96</t>
+          <t>-8,09; 32,24</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-16,69; 21,3</t>
+          <t>-8,77; 55,73</t>
         </is>
       </c>
     </row>
